--- a/Excel - Assignment 2 (2).xlsx
+++ b/Excel - Assignment 2 (2).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TOPMENTOR\PART1\topmenor\Top Mentor\Excel Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FADF63D-4203-436E-98AF-E2D5C5210338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise - 1" sheetId="2" r:id="rId1"/>
@@ -19,10 +20,19 @@
     <sheet name="Exercise - 5" sheetId="6" r:id="rId5"/>
     <sheet name="Exercise -6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -358,7 +368,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -778,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -877,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="18" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1204,20 +1211,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1228,7 +1235,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1246,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1248,7 +1255,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1268,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1274,7 +1281,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1294,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1307,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1320,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +1333,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1346,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1352,21 +1359,21 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
@@ -1377,7 +1384,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1386,7 +1393,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
@@ -1399,18 +1406,21 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="12">
+        <f>COUNT(B5:B11)</f>
+        <v>4</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1419,7 +1429,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
@@ -1432,18 +1442,21 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="12">
+        <f>COUNT(B5:B11)</f>
+        <v>4</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
         <v>14</v>
       </c>
@@ -1451,16 +1464,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="12">
+        <f>ROWS(_xlfn.UNIQUE(A5:A11))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
     </row>
   </sheetData>
@@ -1469,21 +1485,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
@@ -1495,7 +1511,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>20</v>
       </c>
@@ -1507,7 +1523,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>21</v>
       </c>
@@ -1522,7 +1538,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>101</v>
       </c>
@@ -1537,7 +1553,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>102</v>
       </c>
@@ -1552,7 +1568,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>103</v>
       </c>
@@ -1567,7 +1583,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>104</v>
       </c>
@@ -1582,7 +1598,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>105</v>
       </c>
@@ -1597,7 +1613,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>106</v>
       </c>
@@ -1610,7 +1626,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>107</v>
       </c>
@@ -1625,7 +1641,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>108</v>
       </c>
@@ -1640,7 +1656,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>109</v>
       </c>
@@ -1655,7 +1671,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>110</v>
       </c>
@@ -1670,7 +1686,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>111</v>
       </c>
@@ -1683,7 +1699,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>112</v>
       </c>
@@ -1698,7 +1714,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>113</v>
       </c>
@@ -1713,7 +1729,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>114</v>
       </c>
@@ -1728,7 +1744,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1737,7 +1753,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
@@ -1748,7 +1764,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18" t="s">
         <v>14</v>
       </c>
@@ -1761,18 +1777,21 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="25">
+        <f>COUNT(C5:C18)</f>
+        <v>10</v>
+      </c>
       <c r="C22" s="18"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1781,7 +1800,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="18" t="s">
         <v>14</v>
       </c>
@@ -1794,11 +1813,14 @@
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="25">
+        <f>COUNTBLANK(C5:C18)</f>
+        <v>2</v>
+      </c>
       <c r="C25" s="18"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1811,20 +1833,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="11" t="s">
         <v>42</v>
@@ -1832,19 +1854,19 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="28" t="s">
         <v>43</v>
@@ -1852,7 +1874,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="28">
         <v>4</v>
@@ -1860,13 +1882,13 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="28"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="28">
         <v>3</v>
@@ -1874,13 +1896,13 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="28"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="28" t="s">
         <v>44</v>
@@ -1888,13 +1910,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="28"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="28" t="e">
         <v>#DIV/0!</v>
@@ -1902,7 +1924,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="28" t="s">
         <v>45</v>
@@ -1910,7 +1932,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="29" t="s">
         <v>46</v>
@@ -1918,13 +1940,13 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>51</v>
@@ -1935,16 +1957,16 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -1957,28 +1979,28 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="61">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="60">
         <f>COUNT(B3:B13)</f>
         <v>2</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -1991,25 +2013,28 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="60">
+        <f>COUNTBLANK(B5:B13)</f>
+        <v>3</v>
+      </c>
+      <c r="B21" s="60"/>
       <c r="C21" s="8"/>
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -2022,25 +2047,28 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="60">
+        <f>COUNTA(B5:B13) - COUNT(B5:B13)</f>
+        <v>4</v>
+      </c>
+      <c r="B24" s="60"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>4</v>
       </c>
@@ -2053,24 +2081,27 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="61">
+        <f>ROWS(B5:B13) * COLUMNS(B5:B13)</f>
+        <v>9</v>
+      </c>
+      <c r="B27" s="61"/>
       <c r="C27" s="8"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
     </row>
@@ -2094,28 +2125,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="73.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="40" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -2124,7 +2155,7 @@
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="42" t="s">
         <v>0</v>
@@ -2133,7 +2164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="34"/>
       <c r="B4" s="35" t="s">
         <v>55</v>
@@ -2142,7 +2173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="34"/>
       <c r="B5" s="35" t="s">
         <v>56</v>
@@ -2151,7 +2182,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="35" t="s">
         <v>57</v>
@@ -2160,7 +2191,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="35" t="s">
         <v>58</v>
@@ -2169,7 +2200,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="35" t="s">
         <v>59</v>
@@ -2178,7 +2209,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="35" t="s">
         <v>60</v>
@@ -2187,56 +2218,74 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34">
         <v>1.1000000000000001</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="33"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="33">
+        <f>MAX(C4:C9)</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34">
         <v>1.2</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="33"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="33">
+        <f>MIN(C4:C9)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34">
         <v>1.3</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="33"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="33">
+        <f>MAX(C4:C9)+MIN(C4:C9)/2</f>
+        <v>364.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>1.4</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="56"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="33">
+        <f>LARGE(C4:C9,2)</f>
+        <v>200</v>
+      </c>
+      <c r="D14" s="33">
+        <f>LARGE(C4:C9,3)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>1.5</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="33">
+        <f>SMALL(C4:C9, 4)</f>
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2244,24 +2293,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="45" t="s">
         <v>66</v>
@@ -2280,7 +2329,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="46">
         <v>1</v>
@@ -2299,7 +2348,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="46">
         <v>2</v>
@@ -2318,7 +2367,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="46">
         <v>3</v>
@@ -2337,7 +2386,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="46">
         <v>4</v>
@@ -2356,7 +2405,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="46">
         <v>5</v>
@@ -2375,7 +2424,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="46">
         <v>6</v>
@@ -2394,7 +2443,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="46">
         <v>7</v>
@@ -2413,7 +2462,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="46">
         <v>8</v>
@@ -2432,7 +2481,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="46">
         <v>9</v>
@@ -2451,7 +2500,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="46">
         <v>10</v>
@@ -2470,9 +2519,9 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2481,9 +2530,9 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2492,7 +2541,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="43"/>
       <c r="C14" s="19"/>
@@ -2503,7 +2552,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19">
         <v>1</v>
       </c>
@@ -2515,10 +2564,13 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="44"/>
+      <c r="H15" s="56">
+        <f>SUM(C2:C11)</f>
+        <v>106000</v>
+      </c>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
         <v>2</v>
       </c>
@@ -2530,12 +2582,15 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="44"/>
+      <c r="H16" s="44">
+        <f>SUMIF(D2:D11, "No", C2:C11)</f>
+        <v>27000</v>
+      </c>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
+    <row r="17" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -2544,7 +2599,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>3</v>
       </c>
@@ -2556,12 +2611,15 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="44"/>
+      <c r="H18" s="44">
+        <f>SUMIF(C2:C11, "&gt;10000", E2:E11)</f>
+        <v>1028</v>
+      </c>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
+    <row r="19" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -2570,7 +2628,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
         <v>4</v>
       </c>
@@ -2582,10 +2640,13 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="57"/>
+      <c r="H20" s="56">
+        <f>SUMIF(C2:C11,"&gt;=10000",C2:C11)</f>
+        <v>75000</v>
+      </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19">
         <v>5</v>
       </c>
@@ -2597,12 +2658,15 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="44"/>
+      <c r="H21" s="44">
+        <f>SUMIF(C2:C11,"&lt;=9500",C2:C11)</f>
+        <v>31000</v>
+      </c>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -2624,22 +2688,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
       <c r="B1" s="51" t="s">
         <v>0</v>
@@ -2655,7 +2719,7 @@
       </c>
       <c r="F1" s="48"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
       <c r="B2" s="50" t="s">
         <v>80</v>
@@ -2671,7 +2735,7 @@
       </c>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="50" t="s">
         <v>83</v>
@@ -2687,7 +2751,7 @@
       </c>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="B4" s="50" t="s">
         <v>86</v>
@@ -2703,7 +2767,7 @@
       </c>
       <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="50" t="s">
         <v>88</v>
@@ -2719,7 +2783,7 @@
       </c>
       <c r="F5" s="48"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="B6" s="50" t="s">
         <v>91</v>
@@ -2735,7 +2799,7 @@
       </c>
       <c r="F6" s="48"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
       <c r="B7" s="50" t="s">
         <v>93</v>
@@ -2751,7 +2815,7 @@
       </c>
       <c r="F7" s="48"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
       <c r="B8" s="50" t="s">
         <v>94</v>
@@ -2767,7 +2831,7 @@
       </c>
       <c r="F8" s="48"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="50" t="s">
         <v>96</v>
@@ -2783,7 +2847,7 @@
       </c>
       <c r="F9" s="48"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="B10" s="50" t="s">
         <v>97</v>
@@ -2799,7 +2863,7 @@
       </c>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="50" t="s">
         <v>99</v>
@@ -2815,15 +2879,15 @@
       </c>
       <c r="F11" s="48"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="52" t="s">
         <v>101</v>
@@ -2833,15 +2897,15 @@
       <c r="E13" s="49"/>
       <c r="F13" s="48"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>1</v>
       </c>
@@ -2853,9 +2917,9 @@
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="54" t="s">
         <v>103</v>
       </c>
@@ -2863,25 +2927,28 @@
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="55">
+        <f>SUMIFS(E2:E11,D2:D11,"USA",C2:C11,"athletics")</f>
+        <v>9</v>
+      </c>
       <c r="D17" s="17"/>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>2</v>
       </c>
@@ -2893,9 +2960,9 @@
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="54" t="s">
         <v>103</v>
       </c>
@@ -2903,25 +2970,28 @@
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="55">
+        <f>SUMIF(C2:C11, "Figure Skating", E2:E11)</f>
+        <v>5</v>
+      </c>
       <c r="D21" s="17"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>3</v>
       </c>
@@ -2933,9 +3003,9 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="54" t="s">
         <v>103</v>
       </c>
@@ -2943,25 +3013,28 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="55">
+        <f>SUMIF(D2:D11, "USA",E2:E11)+SUMIF(D2:D11, "Jamaica",E2:E11)</f>
+        <v>75</v>
+      </c>
       <c r="D25" s="17"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>4</v>
       </c>
@@ -2971,20 +3044,23 @@
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="54" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="54"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="55">
+        <f>COUNTIF(D2:D11, "USA")</f>
+        <v>4</v>
+      </c>
       <c r="D29" s="17"/>
     </row>
   </sheetData>
